--- a/Output/estimateurs_fossil.xlsx
+++ b/Output/estimateurs_fossil.xlsx
@@ -406,31 +406,31 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>89</v>
+        <v>102</v>
       </c>
       <c r="B2">
-        <v>97</v>
+        <v>116</v>
       </c>
       <c r="C2">
         <v>22</v>
       </c>
       <c r="D2">
-        <v>93</v>
+        <v>107</v>
       </c>
       <c r="E2">
-        <v>113</v>
+        <v>135</v>
       </c>
       <c r="F2">
-        <v>102</v>
+        <v>119</v>
       </c>
       <c r="G2">
-        <v>104</v>
+        <v>126</v>
       </c>
       <c r="H2">
-        <v>95</v>
+        <v>110</v>
       </c>
       <c r="I2">
-        <v>96</v>
+        <v>110</v>
       </c>
     </row>
   </sheetData>

--- a/Output/estimateurs_fossil.xlsx
+++ b/Output/estimateurs_fossil.xlsx
@@ -406,31 +406,31 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B2">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C2">
         <v>22</v>
       </c>
       <c r="D2">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E2">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="F2">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="G2">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="H2">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="I2">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
   </sheetData>
